--- a/Support/DBScripts/Отчеты/Формы/Отн успеваемость в инд систему.xlsx
+++ b/Support/DBScripts/Отчеты/Формы/Отн успеваемость в инд систему.xlsx
@@ -2736,17 +2736,17 @@
   <dimension ref="A1:I395"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L387" sqref="L387"/>
+      <selection activeCell="G124" sqref="G119:G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.85546875" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
